--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>247.0813213075199</v>
+        <v>52.90158876260089</v>
       </c>
       <c r="R2">
-        <v>2223.73189176768</v>
+        <v>476.114298863408</v>
       </c>
       <c r="S2">
-        <v>0.09891326355459153</v>
+        <v>0.01856483715513485</v>
       </c>
       <c r="T2">
-        <v>0.09891326355459155</v>
+        <v>0.01856483715513485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
-        <v>58.27059770393599</v>
+        <v>15.78615197133511</v>
       </c>
       <c r="R3">
-        <v>524.4353793354239</v>
+        <v>142.075367742016</v>
       </c>
       <c r="S3">
-        <v>0.02332727928469912</v>
+        <v>0.005539858962822553</v>
       </c>
       <c r="T3">
-        <v>0.02332727928469912</v>
+        <v>0.005539858962822554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H4">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>16.062570906096</v>
+        <v>5.573608675938779</v>
       </c>
       <c r="R4">
-        <v>144.563138154864</v>
+        <v>50.16247808344901</v>
       </c>
       <c r="S4">
-        <v>0.006430276886133165</v>
+        <v>0.001955955196347547</v>
       </c>
       <c r="T4">
-        <v>0.006430276886133165</v>
+        <v>0.001955955196347547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N5">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O5">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P5">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q5">
-        <v>1075.56569987664</v>
+        <v>850.0391678148426</v>
       </c>
       <c r="R5">
-        <v>9680.09129888976</v>
+        <v>7650.352510333583</v>
       </c>
       <c r="S5">
-        <v>0.4305777263096531</v>
+        <v>0.2983055725752656</v>
       </c>
       <c r="T5">
-        <v>0.4305777263096531</v>
+        <v>0.2983055725752657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.876939</v>
       </c>
       <c r="I6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q6">
         <v>253.6567955440853</v>
@@ -818,10 +818,10 @@
         <v>2282.911159896768</v>
       </c>
       <c r="S6">
-        <v>0.1015456018176216</v>
+        <v>0.08901617536860075</v>
       </c>
       <c r="T6">
-        <v>0.1015456018176216</v>
+        <v>0.08901617536860076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.876939</v>
       </c>
       <c r="I7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N7">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q7">
-        <v>69.92171738037199</v>
+        <v>89.55847624693634</v>
       </c>
       <c r="R7">
-        <v>629.295456423348</v>
+        <v>806.0262862224271</v>
       </c>
       <c r="S7">
-        <v>0.0279915342156781</v>
+        <v>0.03142889592309935</v>
       </c>
       <c r="T7">
-        <v>0.0279915342156781</v>
+        <v>0.03142889592309936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H8">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I8">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J8">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N8">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O8">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P8">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q8">
-        <v>597.6121474041599</v>
+        <v>1127.000403548615</v>
       </c>
       <c r="R8">
-        <v>5378.509326637441</v>
+        <v>10143.00363193754</v>
       </c>
       <c r="S8">
-        <v>0.2392401316570668</v>
+        <v>0.3955000115316508</v>
       </c>
       <c r="T8">
-        <v>0.2392401316570667</v>
+        <v>0.3955000115316508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H9">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I9">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J9">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P9">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q9">
-        <v>140.9382823440213</v>
+        <v>336.3036925414969</v>
       </c>
       <c r="R9">
-        <v>1268.444541096192</v>
+        <v>3026.733232873472</v>
       </c>
       <c r="S9">
-        <v>0.05642136521147595</v>
+        <v>0.1180195799926005</v>
       </c>
       <c r="T9">
-        <v>0.05642136521147594</v>
+        <v>0.1180195799926005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H10">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I10">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J10">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N10">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P10">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q10">
-        <v>38.850316329968</v>
+        <v>118.7385742835342</v>
       </c>
       <c r="R10">
-        <v>349.652846969712</v>
+        <v>1068.647168551808</v>
       </c>
       <c r="S10">
-        <v>0.01555282106308058</v>
+        <v>0.04166911329447791</v>
       </c>
       <c r="T10">
-        <v>0.01555282106308058</v>
+        <v>0.04166911329447791</v>
       </c>
     </row>
   </sheetData>
